--- a/JPADSandBox_v2/out/ATR-72/PERFORMANCE/XCG_0.5166787324255058/Performance_0.5166787324255058.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/PERFORMANCE/XCG_0.5166787324255058/Performance_0.5166787324255058.xlsx
@@ -1039,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>643.5520519009281</v>
+        <v>639.216734451671</v>
       </c>
     </row>
     <row r="3">
@@ -1050,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>121.13690662153144</v>
+        <v>125.30492648473572</v>
       </c>
     </row>
     <row r="4">
@@ -1061,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>217.79758920135168</v>
+        <v>215.58091886279124</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>982.4865477238111</v>
+        <v>980.1025797991977</v>
       </c>
     </row>
     <row r="6">
@@ -1083,7 +1083,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1129.8595298823825</v>
+        <v>1127.1179667690772</v>
       </c>
     </row>
     <row r="7">
@@ -1094,7 +1094,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>1106.263526582322</v>
+        <v>1055.0424482572296</v>
       </c>
     </row>
     <row r="8">
@@ -1110,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>2111.391246394121</v>
+        <v>2097.1677639490517</v>
       </c>
     </row>
     <row r="10">
@@ -1121,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>397.4307960023998</v>
+        <v>411.1054018528075</v>
       </c>
     </row>
     <row r="11">
@@ -1132,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>714.5590196894741</v>
+        <v>707.2864792086327</v>
       </c>
     </row>
     <row r="12">
@@ -1143,7 +1143,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>3223.3810620859945</v>
+        <v>3215.5596450104913</v>
       </c>
     </row>
     <row r="13">
@@ -1154,7 +1154,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>3706.888221398893</v>
+        <v>3697.8935917620647</v>
       </c>
     </row>
     <row r="14">
@@ -1165,7 +1165,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>3629.4735124091926</v>
+        <v>3461.425355174638</v>
       </c>
     </row>
     <row r="15">
@@ -1181,7 +1181,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>51.372279992558724</v>
+        <v>51.26158248332217</v>
       </c>
     </row>
     <row r="17">
@@ -1192,7 +1192,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>53.34695021449594</v>
+        <v>51.99022559770009</v>
       </c>
     </row>
     <row r="18">
@@ -1203,7 +1203,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>53.94089399218667</v>
+        <v>53.824661607488274</v>
       </c>
     </row>
     <row r="19">
@@ -1214,7 +1214,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>47.008866957346775</v>
+        <v>46.917437038673384</v>
       </c>
     </row>
     <row r="20">
@@ -1225,7 +1225,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="n">
-        <v>57.992787922907944</v>
+        <v>57.98848360304534</v>
       </c>
     </row>
     <row r="21">
@@ -1236,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>62.10369274825419</v>
+        <v>62.02831643450243</v>
       </c>
     </row>
     <row r="22">
@@ -1252,7 +1252,7 @@
         <v>19</v>
       </c>
       <c r="C23" t="n">
-        <v>99.85972352765195</v>
+        <v>99.64454478399558</v>
       </c>
     </row>
     <row r="24">
@@ -1263,7 +1263,7 @@
         <v>19</v>
       </c>
       <c r="C24" t="n">
-        <v>103.69817536295108</v>
+        <v>101.06091368883388</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="n">
-        <v>104.85270970403457</v>
+        <v>104.62677202319536</v>
       </c>
     </row>
     <row r="26">
@@ -1285,7 +1285,7 @@
         <v>19</v>
       </c>
       <c r="C26" t="n">
-        <v>91.37792713091167</v>
+        <v>91.2002015870541</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         <v>19</v>
       </c>
       <c r="C27" t="n">
-        <v>112.72896140522063</v>
+        <v>112.720594476762</v>
       </c>
     </row>
     <row r="28">
@@ -1307,7 +1307,7 @@
         <v>19</v>
       </c>
       <c r="C28" t="n">
-        <v>120.71992110891745</v>
+        <v>120.5734012765706</v>
       </c>
     </row>
     <row r="29">
@@ -1323,7 +1323,7 @@
         <v>21</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0384384384384582</v>
+        <v>1.0142142142142212</v>
       </c>
     </row>
     <row r="31">
@@ -1334,7 +1334,7 @@
         <v>21</v>
       </c>
       <c r="C31" t="n">
-        <v>1.05</v>
+        <v>1.0499999999999998</v>
       </c>
     </row>
     <row r="32">
@@ -1345,7 +1345,7 @@
         <v>10</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9150628892499225</v>
+        <v>0.9152553387117506</v>
       </c>
     </row>
     <row r="33">
@@ -1356,7 +1356,7 @@
         <v>21</v>
       </c>
       <c r="C33" t="n">
-        <v>1.1288731574948239</v>
+        <v>1.131226949966122</v>
       </c>
     </row>
     <row r="34">
@@ -1367,7 +1367,7 @@
         <v>21</v>
       </c>
       <c r="C34" t="n">
-        <v>1.2088950063584858</v>
+        <v>1.2100351458069634</v>
       </c>
     </row>
     <row r="35">
@@ -1383,7 +1383,7 @@
         <v>27</v>
       </c>
       <c r="C36" t="n">
-        <v>28.214260453633237</v>
+        <v>28.176731395894045</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>8167.126635104933</v>
+        <v>8188.830741764994</v>
       </c>
     </row>
     <row r="3">
@@ -1433,7 +1433,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>26795.034892076546</v>
+        <v>26866.242591092494</v>
       </c>
     </row>
     <row r="4">
@@ -1444,7 +1444,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>7724.553639609887</v>
+        <v>7746.669347319077</v>
       </c>
     </row>
     <row r="5">
@@ -1455,7 +1455,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>25343.02375200094</v>
+        <v>25415.5818481597</v>
       </c>
     </row>
     <row r="6">
@@ -1466,7 +1466,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>15.522580044865336</v>
+        <v>15.447110853185627</v>
       </c>
     </row>
     <row r="7">
@@ -1477,7 +1477,7 @@
         <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>18.407720622913022</v>
+        <v>18.40742945359522</v>
       </c>
     </row>
     <row r="8">
@@ -1488,7 +1488,7 @@
         <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>265.96532088121296</v>
+        <v>265.9318648522569</v>
       </c>
     </row>
     <row r="9">
@@ -1504,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>4301.694452880201</v>
+        <v>4300.023099196678</v>
       </c>
     </row>
     <row r="11">
@@ -1515,7 +1515,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>14113.170777166013</v>
+        <v>14107.687333322434</v>
       </c>
     </row>
     <row r="12">
@@ -1526,7 +1526,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>3750.434509612365</v>
+        <v>3749.0294132235113</v>
       </c>
     </row>
     <row r="13">
@@ -1537,7 +1537,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>12304.575162770227</v>
+        <v>12299.965266481337</v>
       </c>
     </row>
   </sheetData>
@@ -1598,7 +1598,7 @@
         <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>14422.022109404621</v>
+        <v>14411.08980466229</v>
       </c>
     </row>
     <row r="5">
@@ -1609,7 +1609,7 @@
         <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>3242.19954777591</v>
+        <v>3239.741867901142</v>
       </c>
     </row>
     <row r="6">
@@ -1625,7 +1625,7 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>2363692.0112896515</v>
+        <v>2363692.185756401</v>
       </c>
     </row>
     <row r="8">
@@ -1636,7 +1636,7 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>3213.725662835233</v>
+        <v>3213.725900043916</v>
       </c>
     </row>
     <row r="9">
@@ -1647,7 +1647,7 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>2112155.986178657</v>
+        <v>2110554.561344579</v>
       </c>
     </row>
     <row r="10">
@@ -1658,7 +1658,7 @@
         <v>43</v>
       </c>
       <c r="C10" t="n">
-        <v>2871.731961809135</v>
+        <v>2869.554630726321</v>
       </c>
     </row>
     <row r="11">
@@ -1674,7 +1674,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>57.763099720153505</v>
+        <v>58.172570926705546</v>
       </c>
     </row>
     <row r="13">
@@ -1685,7 +1685,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>119.26107031493828</v>
+        <v>119.34888420145518</v>
       </c>
     </row>
     <row r="14">
@@ -1696,7 +1696,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>112.28248325731782</v>
+        <v>113.07843160698701</v>
       </c>
     </row>
     <row r="15">
@@ -1707,7 +1707,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>231.82497469426443</v>
+        <v>231.99567123393015</v>
       </c>
     </row>
     <row r="16">
@@ -1723,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>75.23575152269532</v>
+        <v>75.76908290728335</v>
       </c>
     </row>
     <row r="18">
@@ -1734,7 +1734,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>155.33535684078095</v>
+        <v>155.4497355646966</v>
       </c>
     </row>
     <row r="19">
@@ -1745,7 +1745,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>146.2466012320211</v>
+        <v>147.28331450659832</v>
       </c>
     </row>
     <row r="20">
@@ -1756,7 +1756,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>301.94777787624804</v>
+        <v>302.1701123287839</v>
       </c>
     </row>
     <row r="21">
@@ -1772,7 +1772,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.23525484688318096</v>
+        <v>0.23692252203335748</v>
       </c>
     </row>
     <row r="23">
@@ -1783,7 +1783,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4857179241422971</v>
+        <v>0.48607557683870706</v>
       </c>
     </row>
     <row r="24">
@@ -1799,7 +1799,7 @@
         <v>21</v>
       </c>
       <c r="C25" t="n">
-        <v>14.29954042970845</v>
+        <v>14.310466806325726</v>
       </c>
     </row>
     <row r="26">
@@ -1876,7 +1876,7 @@
         <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>62.55987507717393</v>
+        <v>62.54272091498949</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +1915,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>345.87798784579724</v>
+        <v>346.034394941903</v>
       </c>
     </row>
     <row r="3">
@@ -1926,7 +1926,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>76.96559796504002</v>
+        <v>76.98589798318292</v>
       </c>
     </row>
     <row r="4">
@@ -1937,7 +1937,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>252.3401118894808</v>
+        <v>252.3299688402958</v>
       </c>
     </row>
     <row r="5">
@@ -1948,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>675.1836977003181</v>
+        <v>675.3502617653817</v>
       </c>
     </row>
     <row r="6">
@@ -1959,7 +1959,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1125.3061628338635</v>
+        <v>1125.5837696089695</v>
       </c>
     </row>
     <row r="7">
@@ -1975,7 +1975,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>1134.7703013313558</v>
+        <v>1135.2834479721223</v>
       </c>
     </row>
     <row r="9">
@@ -1986,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>252.51180434724412</v>
+        <v>252.5784054566369</v>
       </c>
     </row>
     <row r="10">
@@ -1997,7 +1997,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>827.8875061990839</v>
+        <v>827.8542284786607</v>
       </c>
     </row>
     <row r="11">
@@ -2008,7 +2008,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>2215.1696118776836</v>
+        <v>2215.71608190742</v>
       </c>
     </row>
     <row r="12">
@@ -2019,7 +2019,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>3691.949353129473</v>
+        <v>3692.860136512367</v>
       </c>
     </row>
     <row r="13">
@@ -2035,7 +2035,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>43.66349206955269</v>
+        <v>43.66924990984984</v>
       </c>
     </row>
     <row r="15">
@@ -2046,7 +2046,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>50.21301587998558</v>
+        <v>50.219637396327315</v>
       </c>
     </row>
     <row r="16">
@@ -2057,7 +2057,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>53.7060952455498</v>
+        <v>53.7131773891153</v>
       </c>
     </row>
     <row r="17">
@@ -2068,7 +2068,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>56.76253969041849</v>
+        <v>56.77002488280479</v>
       </c>
     </row>
     <row r="18">
@@ -2084,7 +2084,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>84.87503858012401</v>
+        <v>84.88623092627398</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>97.6062943671426</v>
+        <v>97.61916556521507</v>
       </c>
     </row>
     <row r="21">
@@ -2106,7 +2106,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>104.3962974535525</v>
+        <v>104.41006403931698</v>
       </c>
     </row>
     <row r="22">
@@ -2117,7 +2117,7 @@
         <v>19</v>
       </c>
       <c r="C22" t="n">
-        <v>110.33755015416119</v>
+        <v>110.35210020415619</v>
       </c>
     </row>
     <row r="23">
@@ -2171,7 +2171,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>10.397162568273679</v>
+        <v>10.399645218594351</v>
       </c>
     </row>
   </sheetData>
@@ -2221,7 +2221,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>111.5076639137018</v>
+        <v>111.47648706982</v>
       </c>
     </row>
     <row r="4">
@@ -2232,7 +2232,7 @@
         <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>19624.374653135492</v>
+        <v>19624.392458812188</v>
       </c>
     </row>
     <row r="5">
@@ -2243,7 +2243,7 @@
         <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>18683.352189630652</v>
+        <v>18683.36064095818</v>
       </c>
     </row>
     <row r="6">
@@ -2254,7 +2254,7 @@
         <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>990.5768729173237</v>
+        <v>990.5946785940192</v>
       </c>
     </row>
     <row r="7">
@@ -2265,7 +2265,7 @@
         <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>941.0480292714575</v>
+        <v>941.0649446643183</v>
       </c>
     </row>
     <row r="8">
@@ -2314,7 +2314,7 @@
         <v>53</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4258345607407453</v>
+        <v>0.4246263227398022</v>
       </c>
     </row>
     <row r="13">
@@ -2325,7 +2325,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="n">
-        <v>42.0178948408411</v>
+        <v>42.00710366346551</v>
       </c>
     </row>
     <row r="14">
@@ -2336,7 +2336,7 @@
         <v>53</v>
       </c>
       <c r="C14" t="n">
-        <v>70.32130864904516</v>
+        <v>70.33306236625126</v>
       </c>
     </row>
     <row r="15">
@@ -2347,7 +2347,7 @@
         <v>53</v>
       </c>
       <c r="C15" t="n">
-        <v>45.00256920306859</v>
+        <v>45.0025692030686</v>
       </c>
     </row>
     <row r="16">
@@ -2358,7 +2358,7 @@
         <v>53</v>
       </c>
       <c r="C16" t="n">
-        <v>15.31312877445653</v>
+        <v>15.313294919746909</v>
       </c>
     </row>
     <row r="17">
@@ -2369,7 +2369,7 @@
         <v>53</v>
       </c>
       <c r="C17" t="n">
-        <v>86.99999999999994</v>
+        <v>86.99999999999997</v>
       </c>
     </row>
     <row r="18">
@@ -2380,7 +2380,7 @@
         <v>53</v>
       </c>
       <c r="C18" t="n">
-        <v>22.989883486825278</v>
+        <v>22.989883486825306</v>
       </c>
     </row>
     <row r="19">
@@ -2402,7 +2402,7 @@
         <v>53</v>
       </c>
       <c r="C20" t="n">
-        <v>3.586709101989584</v>
+        <v>3.5867091019896407</v>
       </c>
     </row>
     <row r="21">
@@ -2413,7 +2413,7 @@
         <v>53</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3426231854712398</v>
+        <v>0.3427021699345687</v>
       </c>
     </row>
     <row r="22">
@@ -2429,7 +2429,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3932898450618306</v>
+        <v>0.3926835247741115</v>
       </c>
     </row>
     <row r="24">
@@ -2440,7 +2440,7 @@
         <v>31</v>
       </c>
       <c r="C24" t="n">
-        <v>12.779073843259159</v>
+        <v>12.775698218479528</v>
       </c>
     </row>
     <row r="25">
@@ -2451,7 +2451,7 @@
         <v>31</v>
       </c>
       <c r="C25" t="n">
-        <v>13.853046246728455</v>
+        <v>13.85271636624407</v>
       </c>
     </row>
     <row r="26">
@@ -2473,7 +2473,7 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>4.9637971306860535</v>
+        <v>4.9631687279272185</v>
       </c>
     </row>
     <row r="28">
@@ -2484,7 +2484,7 @@
         <v>31</v>
       </c>
       <c r="C28" t="n">
-        <v>17.38809617219801</v>
+        <v>17.361811400102674</v>
       </c>
     </row>
     <row r="29">
@@ -2495,7 +2495,7 @@
         <v>31</v>
       </c>
       <c r="C29" t="n">
-        <v>5.666666666666654</v>
+        <v>5.666666666666657</v>
       </c>
     </row>
     <row r="30">
@@ -2528,7 +2528,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1636940091016541</v>
+        <v>0.16374216562575583</v>
       </c>
     </row>
     <row r="33">
@@ -2544,7 +2544,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="n">
-        <v>7.2833673295665555</v>
+        <v>7.270630166167118</v>
       </c>
     </row>
     <row r="35">
@@ -2555,7 +2555,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>187.1856126206829</v>
+        <v>187.10913840767404</v>
       </c>
     </row>
     <row r="36">
@@ -2566,7 +2566,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>174.72257586852555</v>
+        <v>174.72177351097753</v>
       </c>
     </row>
     <row r="37">
@@ -2577,7 +2577,7 @@
         <v>34</v>
       </c>
       <c r="C37" t="n">
-        <v>57.28655607789469</v>
+        <v>57.289337386065824</v>
       </c>
     </row>
     <row r="38">
@@ -2588,7 +2588,7 @@
         <v>34</v>
       </c>
       <c r="C38" t="n">
-        <v>79.10394138794919</v>
+        <v>79.09349108447793</v>
       </c>
     </row>
     <row r="39">
@@ -2599,7 +2599,7 @@
         <v>34</v>
       </c>
       <c r="C39" t="n">
-        <v>259.6067117124908</v>
+        <v>259.4647934459524</v>
       </c>
     </row>
     <row r="40">
@@ -2610,7 +2610,7 @@
         <v>34</v>
       </c>
       <c r="C40" t="n">
-        <v>32.19212116251782</v>
+        <v>32.15810032620374</v>
       </c>
     </row>
     <row r="41">
@@ -2621,7 +2621,7 @@
         <v>34</v>
       </c>
       <c r="C41" t="n">
-        <v>137.77077394482893</v>
+        <v>138.07015930212873</v>
       </c>
     </row>
     <row r="42">
@@ -2632,7 +2632,7 @@
         <v>34</v>
       </c>
       <c r="C42" t="n">
-        <v>5.4625800428817115</v>
+        <v>5.453604295762659</v>
       </c>
     </row>
     <row r="43">
@@ -2643,7 +2643,7 @@
         <v>34</v>
       </c>
       <c r="C43" t="n">
-        <v>0.43378912411935744</v>
+        <v>0.43391673890818083</v>
       </c>
     </row>
     <row r="44">
@@ -2659,7 +2659,7 @@
         <v>34</v>
       </c>
       <c r="C45" t="n">
-        <v>19617.116851572566</v>
+        <v>19617.154955456346</v>
       </c>
     </row>
     <row r="46">
@@ -2670,7 +2670,7 @@
         <v>34</v>
       </c>
       <c r="C46" t="n">
-        <v>19429.93123895188</v>
+        <v>19430.04581704867</v>
       </c>
     </row>
     <row r="47">
@@ -2681,7 +2681,7 @@
         <v>34</v>
       </c>
       <c r="C47" t="n">
-        <v>19255.20866308335</v>
+        <v>19255.324043537694</v>
       </c>
     </row>
     <row r="48">
@@ -2692,7 +2692,7 @@
         <v>34</v>
       </c>
       <c r="C48" t="n">
-        <v>19197.922107005452</v>
+        <v>19198.034706151626</v>
       </c>
     </row>
     <row r="49">
@@ -2703,7 +2703,7 @@
         <v>34</v>
       </c>
       <c r="C49" t="n">
-        <v>19118.8181656175</v>
+        <v>19118.94121506715</v>
       </c>
     </row>
     <row r="50">
@@ -2714,7 +2714,7 @@
         <v>34</v>
       </c>
       <c r="C50" t="n">
-        <v>18859.21145390501</v>
+        <v>18859.47642162119</v>
       </c>
     </row>
     <row r="51">
@@ -2725,7 +2725,7 @@
         <v>34</v>
       </c>
       <c r="C51" t="n">
-        <v>18827.019332742486</v>
+        <v>18827.318321294988</v>
       </c>
     </row>
     <row r="52">
@@ -2736,7 +2736,7 @@
         <v>34</v>
       </c>
       <c r="C52" t="n">
-        <v>18689.248558797655</v>
+        <v>18689.248161992855</v>
       </c>
     </row>
     <row r="53">
@@ -2747,7 +2747,7 @@
         <v>34</v>
       </c>
       <c r="C53" t="n">
-        <v>18683.78597875477</v>
+        <v>18683.79455769709</v>
       </c>
     </row>
     <row r="54">
@@ -2758,7 +2758,7 @@
         <v>34</v>
       </c>
       <c r="C54" t="n">
-        <v>18683.352189630652</v>
+        <v>18683.36064095818</v>
       </c>
     </row>
     <row r="55">
@@ -2790,7 +2790,7 @@
         <v>19</v>
       </c>
       <c r="C58" t="n">
-        <v>116.3339563753108</v>
+        <v>116.16757657138551</v>
       </c>
     </row>
     <row r="59">
@@ -2812,7 +2812,7 @@
         <v>10</v>
       </c>
       <c r="C60" t="n">
-        <v>0.17589074951739686</v>
+        <v>0.17563919211035253</v>
       </c>
     </row>
     <row r="61">
@@ -2823,7 +2823,7 @@
         <v>10</v>
       </c>
       <c r="C61" t="n">
-        <v>1.1801986015188999</v>
+        <v>1.1802163406019874</v>
       </c>
     </row>
     <row r="62">
@@ -2834,7 +2834,7 @@
         <v>10</v>
       </c>
       <c r="C62" t="n">
-        <v>1.8671240516906522</v>
+        <v>1.875508689897731</v>
       </c>
     </row>
     <row r="63">
@@ -2845,7 +2845,7 @@
         <v>10</v>
       </c>
       <c r="C63" t="n">
-        <v>0.050636968812736154</v>
+        <v>0.050569975984633586</v>
       </c>
     </row>
     <row r="64">
@@ -2856,7 +2856,7 @@
         <v>10</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07515538503734231</v>
+        <v>0.07556479156540136</v>
       </c>
     </row>
     <row r="65">
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="C65" t="n">
-        <v>23.30705469127642</v>
+        <v>23.338281611219532</v>
       </c>
     </row>
     <row r="66">
@@ -2878,7 +2878,7 @@
         <v>10</v>
       </c>
       <c r="C66" t="n">
-        <v>24.843516545925986</v>
+        <v>24.81987511703089</v>
       </c>
     </row>
     <row r="67">
@@ -2889,7 +2889,7 @@
         <v>127</v>
       </c>
       <c r="C67" t="n">
-        <v>15377.590731849923</v>
+        <v>15377.590731871069</v>
       </c>
     </row>
     <row r="68">
@@ -2900,7 +2900,7 @@
         <v>127</v>
       </c>
       <c r="C68" t="n">
-        <v>10590.91738898087</v>
+        <v>10599.25701276473</v>
       </c>
     </row>
     <row r="69">
@@ -2922,7 +2922,7 @@
         <v>127</v>
       </c>
       <c r="C70" t="n">
-        <v>2261.1307304241295</v>
+        <v>2266.9498858772295</v>
       </c>
     </row>
     <row r="71">
@@ -2987,7 +2987,7 @@
         <v>10</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6731611190944906</v>
+        <v>0.6731624266287856</v>
       </c>
     </row>
     <row r="78">
@@ -2998,7 +2998,7 @@
         <v>10</v>
       </c>
       <c r="C78" t="n">
-        <v>1.131097194190462</v>
+        <v>1.1311038642585236</v>
       </c>
     </row>
     <row r="79">
@@ -3009,7 +3009,7 @@
         <v>10</v>
       </c>
       <c r="C79" t="n">
-        <v>0.040711215708536294</v>
+        <v>0.0406278871817817</v>
       </c>
     </row>
     <row r="80">
@@ -3020,7 +3020,7 @@
         <v>10</v>
       </c>
       <c r="C80" t="n">
-        <v>0.08410926696898864</v>
+        <v>0.08419523614679103</v>
       </c>
     </row>
     <row r="81">
@@ -3031,7 +3031,7 @@
         <v>10</v>
       </c>
       <c r="C81" t="n">
-        <v>16.5350286740109</v>
+        <v>16.56897449815318</v>
       </c>
     </row>
     <row r="82">
@@ -3042,7 +3042,7 @@
         <v>10</v>
       </c>
       <c r="C82" t="n">
-        <v>13.447949731954044</v>
+        <v>13.434297663664594</v>
       </c>
     </row>
     <row r="83">
@@ -3075,7 +3075,7 @@
         <v>127</v>
       </c>
       <c r="C85" t="n">
-        <v>2615.558533857921</v>
+        <v>2610.1997351203117</v>
       </c>
     </row>
     <row r="86">
@@ -3086,7 +3086,7 @@
         <v>127</v>
       </c>
       <c r="C86" t="n">
-        <v>3238.9383075579817</v>
+        <v>3241.562013525246</v>
       </c>
     </row>
     <row r="87">
@@ -3107,7 +3107,7 @@
         <v>19</v>
       </c>
       <c r="C89" t="n">
-        <v>304.4538676974437</v>
+        <v>304.63222016573013</v>
       </c>
     </row>
     <row r="90">
@@ -3118,7 +3118,7 @@
         <v>19</v>
       </c>
       <c r="C90" t="n">
-        <v>304.9352012488982</v>
+        <v>304.63222016573013</v>
       </c>
     </row>
     <row r="91">
@@ -3129,7 +3129,7 @@
         <v>10</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4897491451738869</v>
+        <v>0.49003604568050074</v>
       </c>
     </row>
     <row r="92">
@@ -3140,7 +3140,7 @@
         <v>10</v>
       </c>
       <c r="C92" t="n">
-        <v>0.49052342568196905</v>
+        <v>0.49003604568050074</v>
       </c>
     </row>
     <row r="93">
@@ -3151,7 +3151,7 @@
         <v>10</v>
       </c>
       <c r="C93" t="n">
-        <v>0.35265884163262934</v>
+        <v>0.35224809865269313</v>
       </c>
     </row>
     <row r="94">
@@ -3162,7 +3162,7 @@
         <v>10</v>
       </c>
       <c r="C94" t="n">
-        <v>0.34680544079326414</v>
+        <v>0.34749426004696166</v>
       </c>
     </row>
     <row r="95">
@@ -3173,7 +3173,7 @@
         <v>10</v>
       </c>
       <c r="C95" t="n">
-        <v>0.02856956457892099</v>
+        <v>0.02855307451976504</v>
       </c>
     </row>
     <row r="96">
@@ -3184,7 +3184,7 @@
         <v>10</v>
       </c>
       <c r="C96" t="n">
-        <v>0.028508343521854194</v>
+        <v>0.028498356145879117</v>
       </c>
     </row>
     <row r="97">
@@ -3195,7 +3195,7 @@
         <v>10</v>
       </c>
       <c r="C97" t="n">
-        <v>12.34386476764248</v>
+        <v>12.336608389014625</v>
       </c>
     </row>
     <row r="98">
@@ -3206,7 +3206,7 @@
         <v>10</v>
       </c>
       <c r="C98" t="n">
-        <v>12.16505057641833</v>
+        <v>12.193484363385275</v>
       </c>
     </row>
     <row r="99">
@@ -3217,7 +3217,7 @@
         <v>127</v>
       </c>
       <c r="C99" t="n">
-        <v>3470.198900967106</v>
+        <v>3472.2605436651256</v>
       </c>
     </row>
     <row r="100">
@@ -3228,7 +3228,7 @@
         <v>127</v>
       </c>
       <c r="C100" t="n">
-        <v>3473.7204207056593</v>
+        <v>3465.6063933204364</v>
       </c>
     </row>
     <row r="101">
@@ -3239,7 +3239,7 @@
         <v>127</v>
       </c>
       <c r="C101" t="n">
-        <v>3470.198900967106</v>
+        <v>3472.2605436651256</v>
       </c>
     </row>
     <row r="102">
@@ -3250,7 +3250,7 @@
         <v>127</v>
       </c>
       <c r="C102" t="n">
-        <v>3473.7204207056593</v>
+        <v>3465.6063933204364</v>
       </c>
     </row>
     <row r="103">
@@ -3315,7 +3315,7 @@
         <v>10</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3940067192189998</v>
+        <v>0.39400908017364195</v>
       </c>
     </row>
     <row r="110">
@@ -3326,7 +3326,7 @@
         <v>10</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3918714528035638</v>
+        <v>0.3918735340345067</v>
       </c>
     </row>
     <row r="111">
@@ -3337,7 +3337,7 @@
         <v>10</v>
       </c>
       <c r="C111" t="n">
-        <v>0.02940501294302099</v>
+        <v>0.029361128086892258</v>
       </c>
     </row>
     <row r="112">
@@ -3348,7 +3348,7 @@
         <v>10</v>
       </c>
       <c r="C112" t="n">
-        <v>0.02935560174950042</v>
+        <v>0.029304453120084725</v>
       </c>
     </row>
     <row r="113">
@@ -3359,7 +3359,7 @@
         <v>10</v>
       </c>
       <c r="C113" t="n">
-        <v>13.399304396923032</v>
+        <v>13.419412190417171</v>
       </c>
     </row>
     <row r="114">
@@ -3370,7 +3370,7 @@
         <v>10</v>
       </c>
       <c r="C114" t="n">
-        <v>13.349120080981912</v>
+        <v>13.372490946296619</v>
       </c>
     </row>
     <row r="115">
@@ -3381,7 +3381,7 @@
         <v>127</v>
       </c>
       <c r="C115" t="n">
-        <v>1008.010284894296</v>
+        <v>1008.5220905070108</v>
       </c>
     </row>
     <row r="116">
@@ -3392,7 +3392,7 @@
         <v>127</v>
       </c>
       <c r="C116" t="n">
-        <v>435.13864684451437</v>
+        <v>435.03083643131026</v>
       </c>
     </row>
     <row r="117">
@@ -3403,7 +3403,7 @@
         <v>127</v>
       </c>
       <c r="C117" t="n">
-        <v>3141.4722092088396</v>
+        <v>3142.044207482631</v>
       </c>
     </row>
     <row r="118">
@@ -3414,7 +3414,7 @@
         <v>127</v>
       </c>
       <c r="C118" t="n">
-        <v>3136.8083114498736</v>
+        <v>3136.6336277056284</v>
       </c>
     </row>
     <row r="119">
@@ -3479,7 +3479,7 @@
         <v>10</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6587764780519514</v>
+        <v>0.6587803418903676</v>
       </c>
     </row>
     <row r="126">
@@ -3490,7 +3490,7 @@
         <v>10</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8499267095070685</v>
+        <v>0.8499321796680867</v>
       </c>
     </row>
     <row r="127">
@@ -3501,7 +3501,7 @@
         <v>10</v>
       </c>
       <c r="C127" t="n">
-        <v>0.03982949109252833</v>
+        <v>0.03972870860612508</v>
       </c>
     </row>
     <row r="128">
@@ -3512,7 +3512,7 @@
         <v>10</v>
       </c>
       <c r="C128" t="n">
-        <v>0.05372301599739226</v>
+        <v>0.053654459673925986</v>
       </c>
     </row>
     <row r="129">
@@ -3523,7 +3523,7 @@
         <v>10</v>
       </c>
       <c r="C129" t="n">
-        <v>16.539917030863904</v>
+        <v>16.58197220608378</v>
       </c>
     </row>
     <row r="130">
@@ -3534,7 +3534,7 @@
         <v>10</v>
       </c>
       <c r="C130" t="n">
-        <v>15.820532293799818</v>
+        <v>15.840848735284556</v>
       </c>
     </row>
     <row r="131">
@@ -3545,7 +3545,7 @@
         <v>127</v>
       </c>
       <c r="C131" t="n">
-        <v>7199.414490810046</v>
+        <v>7199.414490810045</v>
       </c>
     </row>
     <row r="132">
@@ -3556,7 +3556,7 @@
         <v>127</v>
       </c>
       <c r="C132" t="n">
-        <v>6274.189210039077</v>
+        <v>6274.189210039076</v>
       </c>
     </row>
     <row r="133">
@@ -3567,7 +3567,7 @@
         <v>127</v>
       </c>
       <c r="C133" t="n">
-        <v>2560.4382877537423</v>
+        <v>2559.762922268867</v>
       </c>
     </row>
     <row r="134">
@@ -3578,7 +3578,7 @@
         <v>127</v>
       </c>
       <c r="C134" t="n">
-        <v>2724.143962507745</v>
+        <v>2726.897563690644</v>
       </c>
     </row>
     <row r="135">
@@ -3599,7 +3599,7 @@
         <v>19</v>
       </c>
       <c r="C137" t="n">
-        <v>300.07702270432026</v>
+        <v>300.65987238918666</v>
       </c>
     </row>
     <row r="138">
@@ -3610,7 +3610,7 @@
         <v>19</v>
       </c>
       <c r="C138" t="n">
-        <v>300.07702270432026</v>
+        <v>300.65987238918666</v>
       </c>
     </row>
     <row r="139">
@@ -3621,7 +3621,7 @@
         <v>10</v>
       </c>
       <c r="C139" t="n">
-        <v>0.4700862204605351</v>
+        <v>0.47099928472312436</v>
       </c>
     </row>
     <row r="140">
@@ -3632,7 +3632,7 @@
         <v>10</v>
       </c>
       <c r="C140" t="n">
-        <v>0.4700862204605351</v>
+        <v>0.47099928472312436</v>
       </c>
     </row>
     <row r="141">
@@ -3643,7 +3643,7 @@
         <v>10</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2850845582207855</v>
+        <v>0.28398214553973583</v>
       </c>
     </row>
     <row r="142">
@@ -3654,7 +3654,7 @@
         <v>10</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2783242369539731</v>
+        <v>0.27819737183736926</v>
       </c>
     </row>
     <row r="143">
@@ -3665,7 +3665,7 @@
         <v>10</v>
       </c>
       <c r="C143" t="n">
-        <v>0.027862801250296304</v>
+        <v>0.02776730910871172</v>
       </c>
     </row>
     <row r="144">
@@ -3676,7 +3676,7 @@
         <v>10</v>
       </c>
       <c r="C144" t="n">
-        <v>0.027792094660157796</v>
+        <v>0.02770072430503119</v>
       </c>
     </row>
     <row r="145">
@@ -3687,7 +3687,7 @@
         <v>10</v>
       </c>
       <c r="C145" t="n">
-        <v>10.231726367346276</v>
+        <v>10.227211590000243</v>
       </c>
     </row>
     <row r="146">
@@ -3698,7 +3698,7 @@
         <v>10</v>
       </c>
       <c r="C146" t="n">
-        <v>10.014510973617735</v>
+        <v>10.042963814734664</v>
       </c>
     </row>
     <row r="147">
@@ -3709,7 +3709,7 @@
         <v>127</v>
       </c>
       <c r="C147" t="n">
-        <v>4119.517813284298</v>
+        <v>4121.362889347725</v>
       </c>
     </row>
     <row r="148">
@@ -3720,7 +3720,7 @@
         <v>127</v>
       </c>
       <c r="C148" t="n">
-        <v>4123.154990335535</v>
+        <v>4111.480039777784</v>
       </c>
     </row>
     <row r="149">
@@ -3731,7 +3731,7 @@
         <v>127</v>
       </c>
       <c r="C149" t="n">
-        <v>4119.517813284298</v>
+        <v>4121.362889347725</v>
       </c>
     </row>
     <row r="150">
@@ -3742,7 +3742,7 @@
         <v>127</v>
       </c>
       <c r="C150" t="n">
-        <v>4123.154990335535</v>
+        <v>4111.480039777784</v>
       </c>
     </row>
     <row r="151">
@@ -3807,7 +3807,7 @@
         <v>10</v>
       </c>
       <c r="C157" t="n">
-        <v>0.38577287970000773</v>
+        <v>0.3857782997229578</v>
       </c>
     </row>
     <row r="158">
@@ -3818,7 +3818,7 @@
         <v>10</v>
       </c>
       <c r="C158" t="n">
-        <v>0.38463890156265024</v>
+        <v>0.3846452867712129</v>
       </c>
     </row>
     <row r="159">
@@ -3829,7 +3829,7 @@
         <v>10</v>
       </c>
       <c r="C159" t="n">
-        <v>0.029214477544276782</v>
+        <v>0.029142692530622093</v>
       </c>
     </row>
     <row r="160">
@@ -3840,7 +3840,7 @@
         <v>10</v>
       </c>
       <c r="C160" t="n">
-        <v>0.029188236690775783</v>
+        <v>0.029112623654911147</v>
       </c>
     </row>
     <row r="161">
@@ -3851,7 +3851,7 @@
         <v>10</v>
       </c>
       <c r="C161" t="n">
-        <v>13.20485294030466</v>
+        <v>13.237565448614463</v>
       </c>
     </row>
     <row r="162">
@@ -3862,7 +3862,7 @@
         <v>10</v>
       </c>
       <c r="C162" t="n">
-        <v>13.177873868763227</v>
+        <v>13.212319553559896</v>
       </c>
     </row>
     <row r="163">
@@ -3873,7 +3873,7 @@
         <v>127</v>
       </c>
       <c r="C163" t="n">
-        <v>648.9454966565902</v>
+        <v>646.5175976452653</v>
       </c>
     </row>
     <row r="164">
@@ -3884,7 +3884,7 @@
         <v>127</v>
       </c>
       <c r="C164" t="n">
-        <v>347.66479706550314</v>
+        <v>344.3798342923926</v>
       </c>
     </row>
     <row r="165">
@@ -3895,7 +3895,7 @@
         <v>127</v>
       </c>
       <c r="C165" t="n">
-        <v>3123.4876685432314</v>
+        <v>3121.1908559959456</v>
       </c>
     </row>
     <row r="166">
@@ -3906,7 +3906,7 @@
         <v>127</v>
       </c>
       <c r="C166" t="n">
-        <v>3121.0108075504745</v>
+        <v>3118.3202755615307</v>
       </c>
     </row>
     <row r="167">
@@ -3971,7 +3971,7 @@
         <v>10</v>
       </c>
       <c r="C173" t="n">
-        <v>0.5006694281179509</v>
+        <v>0.5006773791602772</v>
       </c>
     </row>
     <row r="174">
@@ -3982,7 +3982,7 @@
         <v>10</v>
       </c>
       <c r="C174" t="n">
-        <v>0.49791870053680887</v>
+        <v>0.4979203755068745</v>
       </c>
     </row>
     <row r="175">
@@ -3993,7 +3993,7 @@
         <v>10</v>
       </c>
       <c r="C175" t="n">
-        <v>0.0324232749197859</v>
+        <v>0.03246376962773874</v>
       </c>
     </row>
     <row r="176">
@@ -4004,7 +4004,7 @@
         <v>10</v>
       </c>
       <c r="C176" t="n">
-        <v>0.032320311367954</v>
+        <v>0.03235013051535665</v>
       </c>
     </row>
     <row r="177">
@@ -4015,7 +4015,7 @@
         <v>10</v>
       </c>
       <c r="C177" t="n">
-        <v>15.441667424299066</v>
+        <v>15.422650693420161</v>
       </c>
     </row>
     <row r="178">
@@ -4026,7 +4026,7 @@
         <v>10</v>
       </c>
       <c r="C178" t="n">
-        <v>15.40575197027655</v>
+        <v>15.39160329725752</v>
       </c>
     </row>
     <row r="179">
@@ -4037,7 +4037,7 @@
         <v>127</v>
       </c>
       <c r="C179" t="n">
-        <v>2687.9527697658846</v>
+        <v>2691.3098600867106</v>
       </c>
     </row>
     <row r="180">
@@ -4048,7 +4048,7 @@
         <v>127</v>
       </c>
       <c r="C180" t="n">
-        <v>2679.416890370105</v>
+        <v>2681.888955886353</v>
       </c>
     </row>
     <row r="181">
@@ -4059,7 +4059,7 @@
         <v>127</v>
       </c>
       <c r="C181" t="n">
-        <v>2687.9527697658846</v>
+        <v>2691.3098600867106</v>
       </c>
     </row>
     <row r="182">
@@ -4070,7 +4070,7 @@
         <v>127</v>
       </c>
       <c r="C182" t="n">
-        <v>2679.416890370105</v>
+        <v>2681.888955886353</v>
       </c>
     </row>
     <row r="183">
@@ -4135,7 +4135,7 @@
         <v>10</v>
       </c>
       <c r="C189" t="n">
-        <v>0.3821064265724252</v>
+        <v>0.38210641845965043</v>
       </c>
     </row>
     <row r="190">
@@ -4146,7 +4146,7 @@
         <v>10</v>
       </c>
       <c r="C190" t="n">
-        <v>0.38191123234067453</v>
+        <v>0.381911496917635</v>
       </c>
     </row>
     <row r="191">
@@ -4157,7 +4157,7 @@
         <v>10</v>
       </c>
       <c r="C191" t="n">
-        <v>0.029129633880876554</v>
+        <v>0.029045244976150894</v>
       </c>
     </row>
     <row r="192">
@@ -4168,7 +4168,7 @@
         <v>10</v>
       </c>
       <c r="C192" t="n">
-        <v>0.02912511698317732</v>
+        <v>0.029040071980015923</v>
       </c>
     </row>
     <row r="193">
@@ -4179,7 +4179,7 @@
         <v>10</v>
       </c>
       <c r="C193" t="n">
-        <v>13.117446931706066</v>
+        <v>13.15555846657168</v>
       </c>
     </row>
     <row r="194">
@@ -4190,7 +4190,7 @@
         <v>10</v>
       </c>
       <c r="C194" t="n">
-        <v>13.112779343041494</v>
+        <v>13.151189748443095</v>
       </c>
     </row>
     <row r="195">
@@ -4201,7 +4201,7 @@
         <v>127</v>
       </c>
       <c r="C195" t="n">
-        <v>305.9735226924315</v>
+        <v>301.5260918970158</v>
       </c>
     </row>
     <row r="196">
@@ -4212,7 +4212,7 @@
         <v>127</v>
       </c>
       <c r="C196" t="n">
-        <v>245.8173654848165</v>
+        <v>241.19167224442617</v>
       </c>
     </row>
     <row r="197">
@@ -4223,7 +4223,7 @@
         <v>127</v>
       </c>
       <c r="C197" t="n">
-        <v>3115.4793177344186</v>
+        <v>3111.8878462680213</v>
       </c>
     </row>
     <row r="198">
@@ -4234,7 +4234,7 @@
         <v>127</v>
       </c>
       <c r="C198" t="n">
-        <v>3115.052970027432</v>
+        <v>3111.3939966929615</v>
       </c>
     </row>
     <row r="199">
@@ -4255,7 +4255,7 @@
         <v>19</v>
       </c>
       <c r="C201" t="n">
-        <v>104.16932304023318</v>
+        <v>104.18308361382594</v>
       </c>
     </row>
     <row r="202">
@@ -4277,7 +4277,7 @@
         <v>10</v>
       </c>
       <c r="C203" t="n">
-        <v>0.1575065957021327</v>
+        <v>0.1575274020301211</v>
       </c>
     </row>
     <row r="204">
@@ -4299,7 +4299,7 @@
         <v>10</v>
       </c>
       <c r="C205" t="n">
-        <v>1.7100247832568707</v>
+        <v>1.7095738755577419</v>
       </c>
     </row>
     <row r="206">
@@ -4310,7 +4310,7 @@
         <v>10</v>
       </c>
       <c r="C206" t="n">
-        <v>1.5885914184864613</v>
+        <v>1.5886091575695491</v>
       </c>
     </row>
     <row r="207">
@@ -4321,7 +4321,7 @@
         <v>10</v>
       </c>
       <c r="C207" t="n">
-        <v>0.11699816496847043</v>
+        <v>0.11690551145685493</v>
       </c>
     </row>
     <row r="208">
@@ -4332,7 +4332,7 @@
         <v>10</v>
       </c>
       <c r="C208" t="n">
-        <v>0.11012014773525101</v>
+        <v>0.11004052182324643</v>
       </c>
     </row>
     <row r="209">
@@ -4343,7 +4343,7 @@
         <v>10</v>
       </c>
       <c r="C209" t="n">
-        <v>14.61582567314369</v>
+        <v>14.623552424974216</v>
       </c>
     </row>
     <row r="210">
@@ -4354,7 +4354,7 @@
         <v>10</v>
       </c>
       <c r="C210" t="n">
-        <v>14.425983356885116</v>
+        <v>14.436583280850547</v>
       </c>
     </row>
     <row r="211">
@@ -4365,7 +4365,7 @@
         <v>127</v>
       </c>
       <c r="C211" t="n">
-        <v>-584.229533251591</v>
+        <v>-584.3433797085792</v>
       </c>
     </row>
     <row r="212">
@@ -4387,7 +4387,7 @@
         <v>127</v>
       </c>
       <c r="C213" t="n">
-        <v>1928.5512603456123</v>
+        <v>1927.7927747352269</v>
       </c>
     </row>
     <row r="214">
@@ -4469,7 +4469,7 @@
         <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>1032.3609321043746</v>
+        <v>1032.8217473084583</v>
       </c>
     </row>
     <row r="7">
@@ -4534,7 +4534,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="n">
-        <v>1182.9074052388642</v>
+        <v>1183.6482009561519</v>
       </c>
     </row>
     <row r="14">
@@ -4599,7 +4599,7 @@
         <v>53</v>
       </c>
       <c r="C20" t="n">
-        <v>1786.5401394359992</v>
+        <v>1788.3913196708704</v>
       </c>
     </row>
     <row r="21">
@@ -4659,7 +4659,7 @@
         <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>1887.0185810518285</v>
+        <v>1889.5745168075748</v>
       </c>
     </row>
     <row r="27">
@@ -4779,7 +4779,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>59.26368470459366</v>
+        <v>59.683793261756875</v>
       </c>
     </row>
     <row r="8">
@@ -4790,7 +4790,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>115.19938711476087</v>
+        <v>116.01601281982975</v>
       </c>
     </row>
     <row r="9">
@@ -4828,7 +4828,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>93.7041131002995</v>
+        <v>94.36836305288091</v>
       </c>
     </row>
     <row r="13">
@@ -4839,7 +4839,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>182.14622416904868</v>
+        <v>183.43742278097795</v>
       </c>
     </row>
     <row r="14">
@@ -5066,7 +5066,7 @@
         <v>13</v>
       </c>
       <c r="C38" t="n">
-        <v>93.7041131002995</v>
+        <v>94.36836305288091</v>
       </c>
     </row>
     <row r="39">
@@ -5077,7 +5077,7 @@
         <v>19</v>
       </c>
       <c r="C39" t="n">
-        <v>182.14622416904868</v>
+        <v>183.43742278097795</v>
       </c>
     </row>
     <row r="40">
@@ -5088,7 +5088,7 @@
         <v>21</v>
       </c>
       <c r="C40" t="n">
-        <v>2.0945966602989277</v>
+        <v>2.1024473823273606</v>
       </c>
     </row>
     <row r="41">
@@ -5126,7 +5126,7 @@
         <v>21</v>
       </c>
       <c r="C44" t="n">
-        <v>2.718460628406965</v>
+        <v>2.7186030220015134</v>
       </c>
     </row>
     <row r="45">
@@ -5164,7 +5164,7 @@
         <v>21</v>
       </c>
       <c r="C48" t="n">
-        <v>2.0318100821466736</v>
+        <v>2.0318955790990385</v>
       </c>
     </row>
     <row r="49">
@@ -5202,7 +5202,7 @@
         <v>21</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.0318100821466738</v>
+        <v>-0.03189557909903873</v>
       </c>
     </row>
     <row r="53">
@@ -5240,7 +5240,7 @@
         <v>21</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.7184606284069652</v>
+        <v>-0.7186030220015134</v>
       </c>
     </row>
     <row r="57">
@@ -5278,7 +5278,7 @@
         <v>21</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.09459666029892766</v>
+        <v>-0.10244738232736061</v>
       </c>
     </row>
     <row r="61">
@@ -5304,7 +5304,7 @@
         <v>13</v>
       </c>
       <c r="C64" t="n">
-        <v>44.797797639802866</v>
+        <v>44.803705059302516</v>
       </c>
     </row>
     <row r="65">
@@ -5315,7 +5315,7 @@
         <v>19</v>
       </c>
       <c r="C65" t="n">
-        <v>87.07995221559952</v>
+        <v>87.09143532045844</v>
       </c>
     </row>
     <row r="66">
@@ -5331,7 +5331,7 @@
         <v>13</v>
       </c>
       <c r="C67" t="n">
-        <v>63.35365298665464</v>
+        <v>63.36200733942967</v>
       </c>
     </row>
     <row r="68">
@@ -5342,7 +5342,7 @@
         <v>19</v>
       </c>
       <c r="C68" t="n">
-        <v>123.14964943410187</v>
+        <v>123.16588899673152</v>
       </c>
     </row>
     <row r="69">
@@ -5369,7 +5369,7 @@
         <v>13</v>
       </c>
       <c r="C71" t="n">
-        <v>78.59428572519482</v>
+        <v>78.60464983772971</v>
       </c>
     </row>
     <row r="72">
@@ -5380,7 +5380,7 @@
         <v>19</v>
       </c>
       <c r="C72" t="n">
-        <v>152.7750694442232</v>
+        <v>152.79521566729318</v>
       </c>
     </row>
     <row r="73">
@@ -5417,7 +5417,7 @@
         <v>13</v>
       </c>
       <c r="C77" t="n">
-        <v>63.35365298665464</v>
+        <v>63.36200733942967</v>
       </c>
     </row>
     <row r="78">
@@ -5428,7 +5428,7 @@
         <v>19</v>
       </c>
       <c r="C78" t="n">
-        <v>123.14964943410187</v>
+        <v>123.16588899673152</v>
       </c>
     </row>
     <row r="79">
@@ -5439,7 +5439,7 @@
         <v>21</v>
       </c>
       <c r="C79" t="n">
-        <v>1.5311436903490936</v>
+        <v>1.5312577484557361</v>
       </c>
     </row>
     <row r="80">
@@ -5455,7 +5455,7 @@
         <v>13</v>
       </c>
       <c r="C81" t="n">
-        <v>78.59428572519482</v>
+        <v>78.60464983772971</v>
       </c>
     </row>
     <row r="82">
@@ -5466,7 +5466,7 @@
         <v>19</v>
       </c>
       <c r="C82" t="n">
-        <v>152.7750694442232</v>
+        <v>152.79521566729318</v>
       </c>
     </row>
     <row r="83">
@@ -5477,7 +5477,7 @@
         <v>21</v>
       </c>
       <c r="C83" t="n">
-        <v>1.5311436903490936</v>
+        <v>1.5312577484557361</v>
       </c>
     </row>
   </sheetData>
